--- a/Assignment/HW3/FP_heads_10.xlsx
+++ b/Assignment/HW3/FP_heads_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hws-PortilloD/Assignment/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D21459D1-828E-4FBB-93BB-5C1FA0A0E4CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D7EC0DFE-7165-4A5B-B1BF-46EFB59A870C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{D21459D1-828E-4FBB-93BB-5C1FA0A0E4CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B78C7D49-804A-47F9-94D7-4B53AAC783F3}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="18630" windowWidth="11580" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="17460" windowWidth="9180" windowHeight="9540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP_heads" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>k_incl</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>k_overall</t>
+  </si>
+  <si>
+    <t>dH1</t>
+  </si>
+  <si>
+    <t>dH2</t>
+  </si>
+  <si>
+    <t>dH3</t>
+  </si>
+  <si>
+    <t>avgdH</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>kea</t>
   </si>
 </sst>
 </file>
@@ -2879,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE8BA0B-1A4B-4668-9ADA-618DC74B2331}">
-  <dimension ref="A2:AA26"/>
+  <dimension ref="A2:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,6 +4936,41 @@
         <v>4.000000032</v>
       </c>
     </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(A2:A26)</f>
+        <v>4.4673295560000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <f>A29/10/10</f>
+        <v>1.116832389</v>
+      </c>
+      <c r="F28">
+        <f>A29/(10/100)</f>
+        <v>1116.8323889999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28*25</f>
+        <v>111.68323890000001</v>
+      </c>
+      <c r="B29">
+        <f>A28/25</f>
+        <v>0.17869318224</v>
+      </c>
+      <c r="E29">
+        <f>B29/10/10</f>
+        <v>1.7869318224000002E-3</v>
+      </c>
+      <c r="F29">
+        <f>B29/(10/100)</f>
+        <v>1.7869318223999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4919,12 +4978,474 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C987C4E-13F8-48BB-8098-B7EAF8D8C413}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>FP_heads!A11-FP_heads!I11</f>
+        <v>3.7424619999999997</v>
+      </c>
+      <c r="C5">
+        <f>FP_heads!J11-FP_heads!O11</f>
+        <v>1.168566499999999</v>
+      </c>
+      <c r="D5">
+        <f>FP_heads!P11-FP_heads!Y11</f>
+        <v>4.2132845000000003</v>
+      </c>
+      <c r="F5">
+        <f>B13/(B5/10)</f>
+        <v>12.508951801722445</v>
+      </c>
+      <c r="G5">
+        <f>C13/(C5/10)</f>
+        <v>22.441035519444856</v>
+      </c>
+      <c r="H5">
+        <f>D13/(D5/10)</f>
+        <v>10.000000189875616</v>
+      </c>
+      <c r="J5">
+        <f>24/((9/F12)+(6/G12)+(9/H12))</f>
+        <v>14.294187942241779</v>
+      </c>
+      <c r="K5">
+        <f>J5/10</f>
+        <v>1.4294187942241778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>FP_heads!A12-FP_heads!I12</f>
+        <v>3.8511600000000001</v>
+      </c>
+      <c r="C6">
+        <f>FP_heads!J12-FP_heads!O12</f>
+        <v>0.75609799999999971</v>
+      </c>
+      <c r="D6">
+        <f>FP_heads!P12-FP_heads!Y12</f>
+        <v>4.4245999999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="0">B14/(B6/10)</f>
+        <v>12.765560621850156</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="1">C14/(C6/10)</f>
+        <v>111.30036692774398</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H10" si="2">D14/(D6/10)</f>
+        <v>9.9999980789223883</v>
+      </c>
+      <c r="K6">
+        <f>J5/24</f>
+        <v>0.59559116426007408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>FP_heads!A13-FP_heads!I13</f>
+        <v>3.9098760000000006</v>
+      </c>
+      <c r="C7">
+        <f>FP_heads!J13-FP_heads!O13</f>
+        <v>0.66876299999999844</v>
+      </c>
+      <c r="D7">
+        <f>FP_heads!P13-FP_heads!Y13</f>
+        <v>4.4917130000000007</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>12.764577558072029</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>111.50634430034781</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>9.9999980185733133</v>
+      </c>
+      <c r="J7">
+        <f>24/((9/F21)+(6/G21)+(9/H21))</f>
+        <v>14.215324184454552</v>
+      </c>
+      <c r="K7">
+        <f>J7/10</f>
+        <v>1.4215324184454552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>FP_heads!A14-FP_heads!I14</f>
+        <v>3.9276769999999992</v>
+      </c>
+      <c r="C8">
+        <f>FP_heads!J14-FP_heads!O14</f>
+        <v>0.645899</v>
+      </c>
+      <c r="D8">
+        <f>FP_heads!P14-FP_heads!Y14</f>
+        <v>4.5082760000000004</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12.753583267327397</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>111.23896176750029</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>9.9999995120085803</v>
+      </c>
+      <c r="K8">
+        <f>J7/24</f>
+        <v>0.59230517435227303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>FP_heads!A15-FP_heads!I15</f>
+        <v>3.9098760000000006</v>
+      </c>
+      <c r="C9">
+        <f>FP_heads!J15-FP_heads!O15</f>
+        <v>0.66876299999999844</v>
+      </c>
+      <c r="D9">
+        <f>FP_heads!P15-FP_heads!Y15</f>
+        <v>4.4917130000000007</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>12.764577558072032</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>111.50634778937655</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>9.9999980185733133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>FP_heads!A16-FP_heads!I16</f>
+        <v>3.8511600000000001</v>
+      </c>
+      <c r="C10">
+        <f>FP_heads!J16-FP_heads!O16</f>
+        <v>0.75609700000000046</v>
+      </c>
+      <c r="D10">
+        <f>FP_heads!P16-FP_heads!Y16</f>
+        <v>4.4245999999999999</v>
+      </c>
+      <c r="F10">
+        <f>B18/(B10/10)</f>
+        <v>12.76556050644481</v>
+      </c>
+      <c r="G10">
+        <f>C18/(C10/10)</f>
+        <v>111.30050773908631</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>9.99999846313791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>FP_heads!A17-FP_heads!I17</f>
+        <v>3.7424619999999997</v>
+      </c>
+      <c r="C11">
+        <f>FP_heads!J17-FP_heads!O17</f>
+        <v>1.168566499999999</v>
+      </c>
+      <c r="D11">
+        <f>FP_heads!P17-FP_heads!Y17</f>
+        <v>4.2132845000000003</v>
+      </c>
+      <c r="F11">
+        <f>B19/(B11/10)</f>
+        <v>12.50895162358659</v>
+      </c>
+      <c r="G11">
+        <f>C19/(C11/10)</f>
+        <v>22.441033237446643</v>
+      </c>
+      <c r="H11">
+        <f>D19/(D11/10)</f>
+        <v>10.000000569626856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B5:B11)</f>
+        <v>3.8478104285714285</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="3">AVERAGE(C5:C11)</f>
+        <v>0.83325042857142784</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>4.3953530000000001</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F5:F11)</f>
+        <v>12.690251848153638</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:H12" si="4">AVERAGE(G5:G11)</f>
+        <v>85.962085325849486</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>9.9999989786739967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(flux!A11:I11)</f>
+        <v>4.6814276777777781</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(flux!J11:O11)</f>
+        <v>2.6223842333333334</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(flux!P11:Y11)</f>
+        <v>4.2132845799999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>AVERAGE(flux!A12:I12)</f>
+        <v>4.9162216444444446</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(flux!J12:O12)</f>
+        <v>8.415398483333334</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(flux!P12:Y12)</f>
+        <v>4.4245991499999997</v>
+      </c>
+      <c r="F14">
+        <f>B13/($B$12/10)</f>
+        <v>12.166471723805389</v>
+      </c>
+      <c r="G14">
+        <f>C13/($C$12/10)</f>
+        <v>31.471741788711693</v>
+      </c>
+      <c r="H14">
+        <f>D13/($D$12/10)</f>
+        <v>9.5857706536881082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>AVERAGE(flux!A13:I13)</f>
+        <v>4.990791544444444</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(flux!J13:O13)</f>
+        <v>7.4571317333333331</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(flux!P13:Y13)</f>
+        <v>4.4917121099999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F20" si="5">B14/($B$12/10)</f>
+        <v>12.776673216382138</v>
+      </c>
+      <c r="G15">
+        <f>C14/($C$12/10)</f>
+        <v>100.99482934273641</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H20" si="6">D14/($D$12/10)</f>
+        <v>10.066538796770134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(flux!A14:I14)</f>
+        <v>5.0091955666666657</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(flux!J14:O14)</f>
+        <v>7.1849134166666673</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(flux!P14:Y14)</f>
+        <v>4.50827578</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>12.970471485252896</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G20" si="7">C15/($C$12/10)</f>
+        <v>89.494484222687589</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>10.219229513533952</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>AVERAGE(flux!A15:I15)</f>
+        <v>4.9907915444444448</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(flux!J15:O15)</f>
+        <v>7.4571319666666662</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(flux!P15:Y15)</f>
+        <v>4.4917121099999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>13.018301342164673</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>86.227539408349216</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>10.256914018054976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>AVERAGE(flux!A16:I16)</f>
+        <v>4.9162216000000001</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(flux!J16:O16)</f>
+        <v>8.4153979999999997</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(flux!P16:Y16)</f>
+        <v>4.4245993199999996</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>12.970471485252897</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>89.494487022966183</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>10.219229513533952</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>AVERAGE(flux!A17:I17)</f>
+        <v>4.6814276111111113</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(flux!J17:O17)</f>
+        <v>2.6223839666666668</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(flux!P17:Y17)</f>
+        <v>4.2132847400000006</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>12.776673100876332</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>100.99482354215932</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>10.066539183542254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>12.16647155054668</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>31.471738588393308</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>9.5857710177089306</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>AVERAGE(F14:F20)</f>
+        <v>12.692219129183002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:H21" si="8">AVERAGE(G14:G20)</f>
+        <v>75.735663416571967</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>9.9999989566903302</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4933,8 +5454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A293146-0B35-43AA-8CD8-D45DB416E0DA}">
   <dimension ref="A4:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,7 +5572,8 @@
         <v>1.3</v>
       </c>
       <c r="I8">
-        <v>1.01</v>
+        <f>flux!E28</f>
+        <v>1.116832389</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
